--- a/variables/configuration-Final.xlsx
+++ b/variables/configuration-Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudarshanv/Documents/Projects/panorama/variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD446A-6B82-274F-967E-2E2DDFCCF245}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E0435A-FE29-424B-999E-17C6BFF1ED47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="5" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="1" xr2:uid="{14BF9E76-722D-4A72-8D6C-E94CE9EBBE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="FirewallPolicies_postrule" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="363">
   <si>
     <t>Name</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>interzone</t>
   </si>
   <si>
@@ -170,12 +167,6 @@
     <t>add</t>
   </si>
   <si>
-    <t>test, test2</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
     <t>Devicegroup</t>
   </si>
   <si>
@@ -197,90 +188,9 @@
     <t>Coles_windows_ldap</t>
   </si>
   <si>
-    <t>Coles_active_directory</t>
-  </si>
-  <si>
-    <t>Coles_CMLCONNECT_1</t>
-  </si>
-  <si>
-    <t>Coles_CMLCONNECT_2</t>
-  </si>
-  <si>
-    <t>Coles_dial_time_gateway</t>
-  </si>
-  <si>
-    <t>Coles_DNS</t>
-  </si>
-  <si>
-    <t>Coles_HP_NNM</t>
-  </si>
-  <si>
-    <t>Coles_idm</t>
-  </si>
-  <si>
-    <t>Coles_INGENICO_TMS</t>
-  </si>
-  <si>
-    <t>Coles_management</t>
-  </si>
-  <si>
-    <t>Coles_netdev</t>
-  </si>
-  <si>
-    <t>Coles_ntp</t>
-  </si>
-  <si>
-    <t>Coles_owa</t>
-  </si>
-  <si>
-    <t>Coles_proxy</t>
-  </si>
-  <si>
     <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.130, 5.4.5.131, 5.4.5.132, 5.4.5.133 on Coles side</t>
   </si>
   <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.137, 5.4.5.139 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.186 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.188 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.190 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.95, 5.4.5.238 and 5.4.5.677 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.265 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.187 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.729 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.214 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.438 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.680 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.273, 5.4.5.274 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.709, 5.4.5.710 on Coles side</t>
-  </si>
-  <si>
-    <t>ifw_internal_1, ifw_sslvpn_1</t>
-  </si>
-  <si>
     <t>nok_10.232.0.0-16_BrandAllocation</t>
   </si>
   <si>
@@ -290,9 +200,6 @@
     <t>grp_intranet_portal</t>
   </si>
   <si>
-    <t>hoc_172.25.151.51_utnnm, hoc_172.25.151.52_utnnm</t>
-  </si>
-  <si>
     <t>hoc_172.27.255.84_idmutils</t>
   </si>
   <si>
@@ -305,54 +212,12 @@
     <t>noc_172.28.0.0_coles_dev</t>
   </si>
   <si>
-    <t>hoc_192.168.180.50_ntp1, hoc_192.168.180.51_ntp2</t>
-  </si>
-  <si>
-    <t>hoc_172.25.184.159_coleswebmail, hoc_172.27.0.135_webmail.cmltd.net.au, hoc_172.27.0.136_as3g.coles.com.au</t>
-  </si>
-  <si>
     <t>grp_proxy-int_intfc</t>
   </si>
   <si>
     <t>tcp_464, udp_123, udp_389, udp_464, udp_636, udp_88, udp_138, tcp_135, tcp_139, tcp_3268, tcp_445, tcp_88</t>
   </si>
   <si>
-    <t>tcp_123, tcp_135, tcp_137, tcp_139, tcp_3268, tcp_3269, tcp_389, tcp_445, tcp_53, tcp_636, tcp_88, tcp_464, tcp_9389, tcp_24158, udp_123, udp_137, udp_138, udp_53, udp_636, udp_389, udp_445, udp_464, udp_88, tcp_1025, tcp_59001, tcp_80</t>
-  </si>
-  <si>
-    <t>tcp_7443</t>
-  </si>
-  <si>
-    <t>tcp_443, tcp_80</t>
-  </si>
-  <si>
-    <t>tcp_135, tcp_139, tcp_1433, tcp_2107</t>
-  </si>
-  <si>
-    <t>tcp_53, udp_53</t>
-  </si>
-  <si>
-    <t>tcp_2953, tcp_2954, tcp_3443, tcp_7510, udp_162</t>
-  </si>
-  <si>
-    <t>tcp_443</t>
-  </si>
-  <si>
-    <t>tcp_443, tcp_80, tcp_7000</t>
-  </si>
-  <si>
-    <t>tcp_22, tcp_23, tcp_3389, tcp_443, tcp_445, tcp_80</t>
-  </si>
-  <si>
-    <t>udp_123</t>
-  </si>
-  <si>
-    <t>tcp_80, tcp_443</t>
-  </si>
-  <si>
-    <t>tcp_21, tcp_8080</t>
-  </si>
-  <si>
     <t>hoc_172.22.71.31_eds_test</t>
   </si>
   <si>
@@ -1157,40 +1022,18 @@
     <t>gok_Kmart_all</t>
   </si>
   <si>
-    <t>gok_kmart_dcs,gok_kmart_offices, gok_kmart_sslvpnpools, gok_core_stores</t>
-  </si>
-  <si>
     <t>goc_windows_servers_ldap</t>
   </si>
   <si>
     <t>goc_coles_ad</t>
   </si>
   <si>
-    <t>hoc_172.25.163.216_scripts.CMLCONNECT.ORG
-hoc_172.25.184.226_portal_cmlconnect_org</t>
-  </si>
-  <si>
-    <t>hoc_172.25.163.66_wpdtimedev01vm, hoc_172.25.163.90_WPDTIME01VM, hoc_172.25.163.92_WPDTIME02VM, hoc_172.25.174.79_WPSQL14E, hoc_172.25.191.113_wpclsql10e, hoc_172.25.191.152_wpclsql11e, hoc_172.25.29.148_wpsql01, hoc_172.25.31.50_ironbark, hoc_172.25.31.55_spruce, hoc_172.25.41.73_wpdms02, hoc_172.25.71.56_wtsql14, hoc_172.25.29.153_wpsql06</t>
-  </si>
-  <si>
-    <t>goc_wins, goc_internal_dns, hoc_172.25.12.21_wpad01,hoc_192.168.173.111_lpextdns1n2, hoc_192.168.173.112_lpextdns2n2</t>
-  </si>
-  <si>
-    <t>goc_proxyservers</t>
-  </si>
-  <si>
     <t>goc_coles_serverfarm</t>
   </si>
   <si>
     <t>dg_au_dc_innerfw</t>
   </si>
   <si>
-    <t>gok_kmart_dcs,gok_kmart_offices, gok_kmart_sslvpnpools</t>
-  </si>
-  <si>
-    <t>gok_kmart_offices, gok_kmart_sslvpnpools</t>
-  </si>
-  <si>
     <t>10.232.0.0/16</t>
   </si>
   <si>
@@ -1245,223 +1088,6 @@
     <t>hoc_172.22.161.23_lx-papcops</t>
   </si>
   <si>
-    <t>Coles_pwdreset_svr</t>
-  </si>
-  <si>
-    <t>Coles_ent_tech</t>
-  </si>
-  <si>
-    <t>Coles_sap</t>
-  </si>
-  <si>
-    <t>Coles_sap_1</t>
-  </si>
-  <si>
-    <t>Coles_sap_2</t>
-  </si>
-  <si>
-    <t>Coles_sap_3</t>
-  </si>
-  <si>
-    <t>Coles_sap_4</t>
-  </si>
-  <si>
-    <t>Coles_sap_5</t>
-  </si>
-  <si>
-    <t>Coles_secadm</t>
-  </si>
-  <si>
-    <t>Coles_sql</t>
-  </si>
-  <si>
-    <t>Coles_struxureware</t>
-  </si>
-  <si>
-    <t>Coles_sysmanage</t>
-  </si>
-  <si>
-    <t>Coles_tivoli</t>
-  </si>
-  <si>
-    <t>Coles_websphere</t>
-  </si>
-  <si>
-    <t>Coles_websphere_1</t>
-  </si>
-  <si>
-    <t>Coles_winservers</t>
-  </si>
-  <si>
-    <t>Coles_wins</t>
-  </si>
-  <si>
-    <t>Coles_trm</t>
-  </si>
-  <si>
-    <t>Coles_eai</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.181 and 5.4.5.429 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.64 and 5.4.5.65 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.62 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.66 and 5.4.5.591on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.155 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.156 and 5.4.5.157 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.488 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.583 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.182 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.584 and 5.4.5.585 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.590 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.150 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.165 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.192 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.151 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.127 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.122 and 5.4.5.123 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.193 on Coles side</t>
-  </si>
-  <si>
-    <t>Active Policies added during Coles demerger project - Policy ID 5.4.5.619 on Coles side</t>
-  </si>
-  <si>
-    <t>gok_kmart_dcs, gok_kmart_offices, gok_kmart_sslvpnpools, gok_core_stores, nok_172.31.0.0-16_KmartHO, gok_Kmart_all</t>
-  </si>
-  <si>
-    <t>gok_Kmart_all, nok_10.87.192.0-18_stores</t>
-  </si>
-  <si>
-    <t>gok_kmart_sslvpnpools, nok_172.31.0.0-16_KmartHO</t>
-  </si>
-  <si>
-    <t>gok_kmart_offices, gok_kmart_sslvpnpools, gok_core_stores, nok_172.31.0.0-16_KmartHO</t>
-  </si>
-  <si>
-    <t>hoc_172.22.29.123_WPEPS02VM, hoc_172.22.29.67_WDEPS01VM, hoc_172.22.31.145_WPEPS01VM</t>
-  </si>
-  <si>
-    <t>del_172.22.61.243_utsap1, del_172.22.61.30_sh0301ec, grp_SAP_new, hoc_172.22.160.46_udixos1, hoc_172.22.160.47_utsap1, hoc_172.22.160.49_sh0301ec, hoc_172.22.31.181_upsap3, hoc_172.22.61.100_upsap1, hoc_172.25.31.206_Uqsap3, hoc_172.25.61.114_uqsap1</t>
-  </si>
-  <si>
-    <t>hoc_172.22.4.71_ZSTLLTCM601, hoc_172.22.71.48_wpsapepprd02, hoc_172.22.71.69_wpsapepuat02, hoc_172.25.182.38_connectuat, hoc_172.25.191.139_wpsapepdev01, hoc_172.25.191.140_wpsapepuat01, hoc_172.25.42.96_wpsapeptst01, hoc_172.27.3.207_connectuat, hoc_192.168.98.23_saprp100, hoc_192.168.99.26_saprq300</t>
-  </si>
-  <si>
-    <t>hoc_172.25.182.24_connecttest, hoc_172.25.182.38_connectuat, hoc_172.25.184.228_connectportal</t>
-  </si>
-  <si>
-    <t>hoc_172.22.160.94_lpunixweb03, hoc_172.25.159.99_lpunixweb01</t>
-  </si>
-  <si>
-    <t>hoc_172.22.150.128_dpx04db01, hoc_172.22.150.129_dpx04db02, hoc_172.22.150.130_dpx04db03, hoc_172.22.150.131_dpx04db04, hoc_172.22.150.160_ddx02db01, hoc_172.22.150.161_ddx02db02, hoc_172.22.150.162_ddx02db03, hoc_172.22.150.163_ddx02db04, hoc_172.22.160.100_dpx0401-vip, hoc_172.22.160.101_dpx0402-vip, hoc_172.22.160.102_dpx0403-vip, hoc_172.22.160.103_dpx0404-vip, hoc_172.22.160.104_dpx04-scan, hoc_172.22.160.105_dpx04-scan, hoc_172.22.160.106_dpx04-scan, hoc_172.22.160.200_ddx0201-vip, hoc_172.22.160.201_ddx0202-vip, hoc_172.22.160.202_ddx0203-vip, hoc_172.22.160.203_ddx0204-vip, hoc_172.22.160.204_ddx02-scan, hoc_172.22.160.205_ddx02-scan, hoc_172.22.160.206_ddx02-scan, hoc_172.22.150.20_dpx05db01, hoc_172.22.150.21_dpx05db02, hoc_172.22.150.22_dpx05db03, hoc_172.22.150.23_dpx05db04, hoc_172.22.162.68_dpx0501-vip, hoc_172.22.162.69_dpx0502-vip, hoc_172.22.162.70_dpx0503-vip, hoc_172.22.162.71_dpx0504-vip, hoc_172.22.162.72_dpx05-scan, hoc_172.22.162.73_dpx05-scan, hoc_172.22.162.74_dpx05-scan</t>
-  </si>
-  <si>
-    <t>grp_Coles_Tivoli_Servers, hoc_172.22.31.133_gmpgw10, hoc_172.22.43.27_dsmprd20, hoc_172.22.43.34_uprsprt02, hoc_172.22.43.41_gmpgw20, hoc_172.25.159.73_lpitmrtems4, hoc_172.25.159.74_lpitmrtems1, hoc_172.25.159.79_lpitmrtems6, hoc_172.25.163.224_lpitmrtems5, hoc_172.25.43.35_uprsprt03, hoc_172.25.52.36_tivtest10, hoc_172.25.52.39_torgate10-g0</t>
-  </si>
-  <si>
-    <t>gpc_wins, hoc_172.25.41.99_wpwins09vm</t>
-  </si>
-  <si>
-    <t>grp_TRM_servers, hoc_172.25.184.151_mercuryam-sys-new, hoc_172.25.184.154_wfctrm21, hoc_172.25.71.36_trm-fllweb-22</t>
-  </si>
-  <si>
-    <t>tcp_443,tcp_80</t>
-  </si>
-  <si>
-    <t>tcp_7000, tcp_5510, tcp_5522</t>
-  </si>
-  <si>
-    <t>tcp_9443</t>
-  </si>
-  <si>
-    <t>tcp_139,tcp_3000-5000,tcp_445</t>
-  </si>
-  <si>
-    <t>tcp_3241, tcp_3243, tcp_3641, tcp_3643, tcp_3612, tcp_3201, tcp_3202, tcp_3203, tcp_3211, tcp_3212, tcp_3222, tcp_3232, tcp_3242, tcp_3601, tcp_3602, tcp_3603, tcp_3622, tcp_3642, tcp_8022</t>
-  </si>
-  <si>
-    <t>tcp_20443, tcp_443, tcp_80, tcp_1090, tcp_2443, tcp_3200, tcp_3300, tcp_3600, tcp_4700, tcp_4800, tcp_8000, tcp_8443, tcp_9443, tcp_50000, tcp_51001, tcp_8446</t>
-  </si>
-  <si>
-    <t>tcp_443, tcp_80, tcp_1090, tcp_2443, tcp_8443, tcp_9443, tcp_2444, tcp_8444, tcp_9444</t>
-  </si>
-  <si>
-    <t>tcp_1984, tcp_80</t>
-  </si>
-  <si>
-    <t>tcp_1521</t>
-  </si>
-  <si>
-    <t>tcp_443, tcp_80, tcp_4457-4462</t>
-  </si>
-  <si>
-    <t>tcp_135, tcp_139, tcp_445, tcp_80</t>
-  </si>
-  <si>
-    <t>tcp_6969</t>
-  </si>
-  <si>
-    <t>tcp_8001, tcp_8002, tcp_8021, tcp_8022</t>
-  </si>
-  <si>
-    <t>tcp_8011</t>
-  </si>
-  <si>
-    <t>udp_69, udp_137, udp_138, tcp_1050, tcp_135, tcp_139, tcp_42, tcp_445</t>
-  </si>
-  <si>
-    <t>tcp_80</t>
-  </si>
-  <si>
-    <t>hoc_192.168.96.52_TMS_Prod
-hoc_192.168.241.87_Ingenico_Kidman</t>
-  </si>
-  <si>
-    <t>hoc_172.22.71.31_eds_test, hoc_172.25.182.39_connectuat2</t>
-  </si>
-  <si>
-    <t>hoc_172.27.16.11_portal, hoc_172.27.16.35_login-iam-prd, hoc_172.27.17.23_login-iam-test, hoc_172.27.17.33_login-iam, hoc_172.27.17.39_login-iam-dev, hoc_172.27.17.91_portaltest, hoc_172.28.139.227_portaldev, hoc_172.25.184.226_portal_cmlconnect_org, hoc_172.25.182.22_portalsvt, hoc_172.27.17.11_tmpportalsvt, hoc_172.27.17.33_login-iam</t>
-  </si>
-  <si>
-    <t>hoc_172.25.181.38_utmq1, hoc_172.25.181.40_utmq2, hoc_172.25.181.37_utmq1s, hoc_172.25.181.39_utmq2s</t>
-  </si>
-  <si>
-    <t>hoc_172.22.161.23_lx-papcops, hoc_172.22.161.72, hoc_172.22.162.61_APCDCO</t>
-  </si>
-  <si>
     <t>same</t>
   </si>
   <si>
@@ -1496,6 +1122,9 @@
   </si>
   <si>
     <t>tcp_80, tcp_65535</t>
+  </si>
+  <si>
+    <t>present</t>
   </si>
 </sst>
 </file>
@@ -1904,11 +1533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA6E7A-D4F7-481D-82C4-1C41B345EEED}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1934,7 +1563,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1943,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>26</v>
@@ -1958,10 +1587,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>8</v>
@@ -1970,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>14</v>
@@ -1982,69 +1611,69 @@
         <v>27</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="R2" s="9">
         <v>1054</v>
@@ -2053,1876 +1682,6 @@
         <v>0</v>
       </c>
       <c r="T2" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="224" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="160" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S14" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="144" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="160" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="160" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R26" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R27" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" ht="176" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R28" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S28" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R29" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R30" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S30" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R31" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T31" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R32" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T32" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R33" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S33" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T33" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R34" s="9">
-        <v>1054</v>
-      </c>
-      <c r="S34" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3936,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E16442-E7CB-4AA7-B35A-4998D89832EC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3968,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3977,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>26</v>
@@ -3992,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -4004,7 +1763,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>14</v>
@@ -4016,7 +1775,7 @@
         <v>27</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>28</v>
@@ -4025,72 +1784,75 @@
         <v>24</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>362</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>331</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="b">
@@ -4100,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4126,7 +1888,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4135,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4143,2032 +1905,2032 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="C103" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C106" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="C108" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="C113" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="C115" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="C116" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="C117" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B118" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="C118" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="C119" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="C120" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="C121" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="C122" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C124" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C127" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="C128" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="C129" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="C131" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B132" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="C133" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="C134" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B135" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B136" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="C137" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B138" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C139" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="C140" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="C141" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C143" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="C144" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="C146" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6194,7 +3956,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6203,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -6211,138 +3973,138 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>474</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>476</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>477</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>477</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>477</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>477</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="C18" t="s">
-        <v>480</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>481</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6371,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -6383,7 +4145,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -6391,7 +4153,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B33" si="0">_xlfn.CONCAT(LOWER(C2),"_",D2)</f>
@@ -6404,12 +4166,12 @@
         <v>464</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -6422,12 +4184,12 @@
         <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -6440,12 +4202,12 @@
         <v>389</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -6458,12 +4220,12 @@
         <v>464</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -6476,12 +4238,12 @@
         <v>636</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -6494,12 +4256,12 @@
         <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -6512,12 +4274,12 @@
         <v>138</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -6530,12 +4292,12 @@
         <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -6548,12 +4310,12 @@
         <v>139</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -6566,12 +4328,12 @@
         <v>3268</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -6584,12 +4346,12 @@
         <v>445</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -6602,12 +4364,12 @@
         <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -6620,12 +4382,12 @@
         <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -6638,12 +4400,12 @@
         <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -6656,12 +4418,12 @@
         <v>3269</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -6674,12 +4436,12 @@
         <v>389</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -6692,12 +4454,12 @@
         <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -6710,12 +4472,12 @@
         <v>636</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -6728,12 +4490,12 @@
         <v>9389</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -6746,12 +4508,12 @@
         <v>24158</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -6764,12 +4526,12 @@
         <v>137</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -6782,12 +4544,12 @@
         <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -6800,12 +4562,12 @@
         <v>445</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -6818,12 +4580,12 @@
         <v>1025</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -6836,12 +4598,12 @@
         <v>59001</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -6854,12 +4616,12 @@
         <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -6872,12 +4634,12 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -6890,12 +4652,12 @@
         <v>4011</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -6908,12 +4670,12 @@
         <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -6926,12 +4688,12 @@
         <v>67</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -6944,12 +4706,12 @@
         <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -6962,12 +4724,12 @@
         <v>443</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B65" si="1">_xlfn.CONCAT(LOWER(C34),"_",D34)</f>
@@ -6980,12 +4742,12 @@
         <v>7443</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
@@ -6998,12 +4760,12 @@
         <v>9443</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
@@ -7016,12 +4778,12 @@
         <v>1433</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
@@ -7034,12 +4796,12 @@
         <v>2107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
@@ -7052,12 +4814,12 @@
         <v>2953</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
@@ -7070,12 +4832,12 @@
         <v>2954</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
@@ -7088,12 +4850,12 @@
         <v>3443</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
@@ -7106,12 +4868,12 @@
         <v>7510</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
@@ -7124,12 +4886,12 @@
         <v>162</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
@@ -7142,12 +4904,12 @@
         <v>7000</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
@@ -7160,12 +4922,12 @@
         <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
@@ -7178,12 +4940,12 @@
         <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
@@ -7196,12 +4958,12 @@
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
@@ -7214,12 +4976,12 @@
         <v>3389</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
@@ -7232,12 +4994,12 @@
         <v>8080</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
@@ -7250,12 +5012,12 @@
         <v>5510</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
@@ -7268,12 +5030,12 @@
         <v>5522</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
@@ -7283,15 +5045,15 @@
         <v>10</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
@@ -7304,12 +5066,12 @@
         <v>3241</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
@@ -7322,12 +5084,12 @@
         <v>3243</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
@@ -7340,12 +5102,12 @@
         <v>3641</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
@@ -7358,12 +5120,12 @@
         <v>3643</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
@@ -7376,12 +5138,12 @@
         <v>3612</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
@@ -7394,12 +5156,12 @@
         <v>3201</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
@@ -7412,12 +5174,12 @@
         <v>3202</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
@@ -7430,12 +5192,12 @@
         <v>3203</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
@@ -7448,12 +5210,12 @@
         <v>3211</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
@@ -7466,12 +5228,12 @@
         <v>3212</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
@@ -7484,12 +5246,12 @@
         <v>3222</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
@@ -7502,12 +5264,12 @@
         <v>3232</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
@@ -7520,12 +5282,12 @@
         <v>3242</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
@@ -7538,12 +5300,12 @@
         <v>3601</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B97" si="2">_xlfn.CONCAT(LOWER(C66),"_",D66)</f>
@@ -7556,12 +5318,12 @@
         <v>3602</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
@@ -7574,12 +5336,12 @@
         <v>3603</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
@@ -7592,12 +5354,12 @@
         <v>3622</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
@@ -7610,12 +5372,12 @@
         <v>3642</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
@@ -7628,12 +5390,12 @@
         <v>8022</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
@@ -7646,12 +5408,12 @@
         <v>20443</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
@@ -7664,12 +5426,12 @@
         <v>1090</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
@@ -7682,12 +5444,12 @@
         <v>2443</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
@@ -7700,12 +5462,12 @@
         <v>3200</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
@@ -7718,12 +5480,12 @@
         <v>3300</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
@@ -7736,12 +5498,12 @@
         <v>3600</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
@@ -7754,12 +5516,12 @@
         <v>4700</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
@@ -7772,12 +5534,12 @@
         <v>4800</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
@@ -7790,12 +5552,12 @@
         <v>8000</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
@@ -7808,12 +5570,12 @@
         <v>8443</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
@@ -7826,12 +5588,12 @@
         <v>50000</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
@@ -7844,12 +5606,12 @@
         <v>51001</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
@@ -7862,12 +5624,12 @@
         <v>8446</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
@@ -7880,12 +5642,12 @@
         <v>2444</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
@@ -7898,12 +5660,12 @@
         <v>8444</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
@@ -7916,12 +5678,12 @@
         <v>9444</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
@@ -7934,12 +5696,12 @@
         <v>1984</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
@@ -7952,12 +5714,12 @@
         <v>1521</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
@@ -7967,15 +5729,15 @@
         <v>10</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
@@ -7988,12 +5750,12 @@
         <v>6969</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
@@ -8006,12 +5768,12 @@
         <v>8001</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
@@ -8024,12 +5786,12 @@
         <v>8002</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
@@ -8042,12 +5804,12 @@
         <v>8021</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
@@ -8060,12 +5822,12 @@
         <v>8011</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
@@ -8078,12 +5840,12 @@
         <v>1050</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
@@ -8096,7 +5858,7 @@
         <v>42</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -8109,7 +5871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6472A306-4237-4364-B563-EDDE513583A6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -8123,7 +5885,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -8132,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -8140,44 +5902,44 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>358</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>483</v>
+        <v>359</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>358</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>483</v>
+        <v>359</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>361</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
